--- a/experiment/output/results/PACS/CORAL/SDG/0_1_2.xlsx
+++ b/experiment/output/results/PACS/CORAL/SDG/0_1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250126_22-58-06_resnet50_sgd</t>
+          <t>250217_18-38-29_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27.058</v>
+        <v>63.328</v>
       </c>
       <c r="E3" t="n">
-        <v>27.058</v>
+        <v>59.941</v>
       </c>
       <c r="F3" t="n">
-        <v>27.058</v>
+        <v>57.893</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -552,23 +552,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>250127_00-23-06_resnet50_adam</t>
+          <t>250126_22-58-06_resnet50_sgd</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58.853</v>
+        <v>27.058</v>
       </c>
       <c r="E4" t="n">
-        <v>53.32</v>
+        <v>27.058</v>
       </c>
       <c r="F4" t="n">
-        <v>48.543</v>
+        <v>27.058</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250127_00-23-06_resnet50_adam</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>58.853</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48.543</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250217_18-15-23_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>67.56100000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62.541</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53.876</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0_1_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250217_19-04-03_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>64.279</v>
+      </c>
+      <c r="E7" t="n">
+        <v>57.347</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.672</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
